--- a/biology/Botanique/Crapaudine_de_Guillon/Crapaudine_de_Guillon.xlsx
+++ b/biology/Botanique/Crapaudine_de_Guillon/Crapaudine_de_Guillon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sideritis hyssopifolia subsp. guillonii
-La crapaudine de guillon, Sideritis hyssopifolia subsp. guillonii (Timb.-Lagr.) Nyman, 1890[1], est une espèce de sous-arbrisseaux des coteaux secs d'Europe occidentale.
+La crapaudine de guillon, Sideritis hyssopifolia subsp. guillonii (Timb.-Lagr.) Nyman, 1890, est une espèce de sous-arbrisseaux des coteaux secs d'Europe occidentale.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Crapaudine de Guillon est un sous-arbrisseau vivace (chamaephyte) appartenant à la famille des Lamiacées.
 Sa floraison a lieu de juillet à septembre sous forme de glomérules et ses fruits sont des akènes.
@@ -544,10 +558,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle colonise les plateaux calcaires à pelouses xérophiles.
-Elle est présente en Andorre, en Espagne et en France[2] dans 7 départements du sud-ouest : Aude, Bouches-du-Rhône, Charente et Charente-Maritime[3], Corrèze, Dordogne, Lot ; elle est protégée en région Poitou-Charente.
+Elle est présente en Andorre, en Espagne et en France dans 7 départements du sud-ouest : Aude, Bouches-du-Rhône, Charente et Charente-Maritime, Corrèze, Dordogne, Lot ; elle est protégée en région Poitou-Charente.
 </t>
         </is>
       </c>
@@ -576,12 +592,14 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sideritis brachystachys Gand., 1889
 Sideritis guillonii Timb.-Lagr., 1872
 Sideritis peyrei subsp. guillonii (Timb.-Lagr.) Coulomb, 1999
-Sideritis scordioides var. guillonii (Timb.-Lagr.) Briq., 1893[3]</t>
+Sideritis scordioides var. guillonii (Timb.-Lagr.) Briq., 1893</t>
         </is>
       </c>
     </row>
